--- a/foundPathNominal/10000pathNodes.xlsx
+++ b/foundPathNominal/10000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12" uniqueCount="3">
   <si>
     <t>X</t>
   </si>
@@ -67,7 +67,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -102,13 +102,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="B3" s="0">
         <v>670</v>
       </c>
       <c r="C3" s="0">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -119,73 +119,73 @@
         <v>710</v>
       </c>
       <c r="C4" s="0">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B5" s="0">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C5" s="0">
-        <v>141.2310562561766</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="B6" s="0">
-        <v>790</v>
+        <v>760</v>
       </c>
       <c r="C6" s="0">
-        <v>191.2310562561766</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B7" s="0">
-        <v>830</v>
+        <v>790</v>
       </c>
       <c r="C7" s="0">
-        <v>241.2310562561766</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="B8" s="0">
-        <v>860</v>
+        <v>830</v>
       </c>
       <c r="C8" s="0">
-        <v>291.2310562561766</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="B9" s="0">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="C9" s="0">
-        <v>341.2310562561766</v>
+        <v>241.2310562561766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="B10" s="0">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="C10" s="0">
-        <v>391.2310562561766</v>
+        <v>271.2310562561766</v>
       </c>
     </row>
     <row r="11">
@@ -193,10 +193,10 @@
         <v>870</v>
       </c>
       <c r="B11" s="0">
-        <v>980</v>
+        <v>940</v>
       </c>
       <c r="C11" s="0">
-        <v>441.2310562561766</v>
+        <v>312.4621125123532</v>
       </c>
     </row>
     <row r="12">
@@ -204,703 +204,824 @@
         <v>860</v>
       </c>
       <c r="B12" s="0">
-        <v>1020</v>
+        <v>970</v>
       </c>
       <c r="C12" s="0">
-        <v>482.4621125123532</v>
+        <v>344.08488911403703</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="B13" s="0">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="C13" s="0">
-        <v>532.4621125123532</v>
+        <v>366.44556888903492</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>760</v>
+        <v>830</v>
       </c>
       <c r="B14" s="0">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="C14" s="0">
-        <v>582.4621125123532</v>
+        <v>388.80624866403281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>710</v>
+        <v>810</v>
       </c>
       <c r="B15" s="0">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="C15" s="0">
-        <v>632.4621125123532</v>
+        <v>411.16692843903058</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>710</v>
+        <v>790</v>
       </c>
       <c r="B16" s="0">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C16" s="0">
-        <v>682.4621125123532</v>
+        <v>447.22244119367048</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>710</v>
+        <v>770</v>
       </c>
       <c r="B17" s="0">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="C17" s="0">
-        <v>732.4621125123532</v>
+        <v>483.27795394831043</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="B18" s="0">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="C18" s="0">
-        <v>773.69316876852986</v>
+        <v>519.33346670295032</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="B19" s="0">
-        <v>830</v>
+        <v>890</v>
       </c>
       <c r="C19" s="0">
-        <v>823.69316876852986</v>
+        <v>533.47560232668127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="B20" s="0">
-        <v>800</v>
+        <v>860</v>
       </c>
       <c r="C20" s="0">
-        <v>873.69316876852986</v>
+        <v>569.5311150813211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="B21" s="0">
-        <v>780</v>
+        <v>850</v>
       </c>
       <c r="C21" s="0">
-        <v>918.41452831852564</v>
+        <v>591.89179485631905</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="B22" s="0">
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="C22" s="0">
-        <v>968.41452831852564</v>
+        <v>601.89179485631905</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="B23" s="0">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="C23" s="0">
-        <v>1018.414528318526</v>
+        <v>631.89179485631905</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>530</v>
+        <v>620</v>
       </c>
       <c r="B24" s="0">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="C24" s="0">
-        <v>1068.414528318526</v>
+        <v>673.12285111249571</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>490</v>
+        <v>580</v>
       </c>
       <c r="B25" s="0">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="C25" s="0">
-        <v>1109.6455845747021</v>
+        <v>714.35390736867237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="B26" s="0">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="C26" s="0">
-        <v>1159.6455845747021</v>
+        <v>755.58496362484902</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="B27" s="0">
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="C27" s="0">
-        <v>1204.366944124698</v>
+        <v>765.58496362484902</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="B28" s="0">
-        <v>810</v>
+        <v>890</v>
       </c>
       <c r="C28" s="0">
-        <v>1249.0883036746941</v>
+        <v>806.81601988102568</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="B29" s="0">
-        <v>770</v>
+        <v>890</v>
       </c>
       <c r="C29" s="0">
-        <v>1293.80966322469</v>
+        <v>826.81601988102568</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="B30" s="0">
-        <v>730</v>
+        <v>890</v>
       </c>
       <c r="C30" s="0">
-        <v>1343.80966322469</v>
+        <v>836.81601988102568</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="B31" s="0">
-        <v>690</v>
+        <v>870</v>
       </c>
       <c r="C31" s="0">
-        <v>1388.5310227746861</v>
+        <v>865.10029112848758</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B32" s="0">
-        <v>690</v>
+        <v>840</v>
       </c>
       <c r="C32" s="0">
-        <v>1438.5310227746861</v>
+        <v>896.72306773017135</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="B33" s="0">
-        <v>650</v>
+        <v>820</v>
       </c>
       <c r="C33" s="0">
-        <v>1488.5310227746861</v>
+        <v>916.72306773017135</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="B34" s="0">
-        <v>600</v>
+        <v>810</v>
       </c>
       <c r="C34" s="0">
-        <v>1538.5310227746861</v>
+        <v>926.72306773017135</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="B35" s="0">
-        <v>570</v>
+        <v>770</v>
       </c>
       <c r="C35" s="0">
-        <v>1588.5310227746861</v>
+        <v>967.95412398634801</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="B36" s="0">
-        <v>530</v>
+        <v>740</v>
       </c>
       <c r="C36" s="0">
-        <v>1638.5310227746861</v>
+        <v>999.57690058803178</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="B37" s="0">
-        <v>530</v>
+        <v>700</v>
       </c>
       <c r="C37" s="0">
-        <v>1688.5310227746861</v>
+        <v>1044.2982601380279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="B38" s="0">
-        <v>480</v>
+        <v>680</v>
       </c>
       <c r="C38" s="0">
-        <v>1738.5310227746861</v>
+        <v>1066.658939913026</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="B39" s="0">
-        <v>440</v>
+        <v>650</v>
       </c>
       <c r="C39" s="0">
-        <v>1783.252382324682</v>
+        <v>1098.2817165147089</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B40" s="0">
-        <v>410</v>
+        <v>620</v>
       </c>
       <c r="C40" s="0">
-        <v>1833.252382324682</v>
+        <v>1129.904493116393</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="B41" s="0">
-        <v>410</v>
+        <v>590</v>
       </c>
       <c r="C41" s="0">
-        <v>1883.252382324682</v>
+        <v>1161.5272697180769</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="B42" s="0">
-        <v>380</v>
+        <v>560</v>
       </c>
       <c r="C42" s="0">
-        <v>1933.252382324682</v>
+        <v>1193.150046319761</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>390</v>
+        <v>530</v>
       </c>
       <c r="B43" s="0">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="C43" s="0">
-        <v>1983.252382324682</v>
+        <v>1224.7728229214449</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="B44" s="0">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="C44" s="0">
-        <v>2033.252382324682</v>
+        <v>1256.395599523129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="B45" s="0">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="C45" s="0">
-        <v>2083.252382324682</v>
+        <v>1297.6266557793051</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>270</v>
+        <v>550</v>
       </c>
       <c r="B46" s="0">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="C46" s="0">
-        <v>2127.9737418746781</v>
+        <v>1307.6266557793051</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B47" s="0">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="C47" s="0">
-        <v>2172.6951014246729</v>
+        <v>1329.9873355543029</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="B48" s="0">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="C48" s="0">
-        <v>2222.6951014246729</v>
+        <v>1361.6101121559871</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="B49" s="0">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="C49" s="0">
-        <v>2267.416460974669</v>
+        <v>1402.8411684121641</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>270</v>
+        <v>430</v>
       </c>
       <c r="B50" s="0">
-        <v>230</v>
+        <v>410</v>
       </c>
       <c r="C50" s="0">
-        <v>2312.1378205246651</v>
+        <v>1434.463945013847</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="B51" s="0">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C51" s="0">
-        <v>2362.1378205246651</v>
+        <v>1475.695001270024</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B52" s="0">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="C52" s="0">
-        <v>2412.1378205246651</v>
+        <v>1507.3177778717079</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="B53" s="0">
-        <v>140</v>
+        <v>370</v>
       </c>
       <c r="C53" s="0">
-        <v>2456.8591800746599</v>
+        <v>1552.039137421704</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="B54" s="0">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="C54" s="0">
-        <v>2506.8591800746599</v>
+        <v>1574.3998171967021</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>470</v>
+        <v>320</v>
       </c>
       <c r="B55" s="0">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="C55" s="0">
-        <v>2556.8591800746599</v>
+        <v>1615.6308734528779</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>520</v>
+        <v>330</v>
       </c>
       <c r="B56" s="0">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="C56" s="0">
-        <v>2606.8591800746599</v>
+        <v>1637.991553227876</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>570</v>
+        <v>340</v>
       </c>
       <c r="B57" s="0">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="C57" s="0">
-        <v>2656.8591800746599</v>
+        <v>1660.3522330028741</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>610</v>
+        <v>360</v>
       </c>
       <c r="B58" s="0">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="C58" s="0">
-        <v>2706.8591800746599</v>
+        <v>1682.7129127778719</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="B59" s="0">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C59" s="0">
-        <v>2751.580539624656</v>
+        <v>1718.7684255325121</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="B60" s="0">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="C60" s="0">
-        <v>2801.580539624656</v>
+        <v>1759.9994817886879</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>750</v>
+        <v>470</v>
       </c>
       <c r="B61" s="0">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="C61" s="0">
-        <v>2851.580539624656</v>
+        <v>1801.2305380448649</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="B62" s="0">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="C62" s="0">
-        <v>2901.580539624656</v>
+        <v>1811.2305380448649</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>840</v>
+        <v>520</v>
       </c>
       <c r="B63" s="0">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="C63" s="0">
-        <v>2951.580539624656</v>
+        <v>1852.461594301041</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>880</v>
+        <v>550</v>
       </c>
       <c r="B64" s="0">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="C64" s="0">
-        <v>2996.3018991746521</v>
+        <v>1882.461594301041</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>900</v>
+        <v>580</v>
       </c>
       <c r="B65" s="0">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="C65" s="0">
-        <v>3041.0232587246469</v>
+        <v>1912.461594301041</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>920</v>
+        <v>620</v>
       </c>
       <c r="B66" s="0">
         <v>210</v>
       </c>
       <c r="C66" s="0">
-        <v>3085.744618274643</v>
+        <v>1952.461594301041</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>910</v>
+        <v>660</v>
       </c>
       <c r="B67" s="0">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="C67" s="0">
-        <v>3126.97567453082</v>
+        <v>1992.461594301041</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>880</v>
+        <v>670</v>
       </c>
       <c r="B68" s="0">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="C68" s="0">
-        <v>3176.97567453082</v>
+        <v>2002.461594301041</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>890</v>
+        <v>710</v>
       </c>
       <c r="B69" s="0">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="C69" s="0">
-        <v>3218.2067307869961</v>
+        <v>2043.692650557218</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>920</v>
+        <v>730</v>
       </c>
       <c r="B70" s="0">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="C70" s="0">
-        <v>3268.2067307869961</v>
+        <v>2063.6926505572178</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>960</v>
+        <v>770</v>
       </c>
       <c r="B71" s="0">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C71" s="0">
-        <v>3318.2067307869961</v>
+        <v>2103.6926505572178</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>940</v>
+        <v>780</v>
       </c>
       <c r="B72" s="0">
-        <v>440</v>
+        <v>200</v>
       </c>
       <c r="C72" s="0">
-        <v>3362.9280903369922</v>
+        <v>2113.6926505572178</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="B73" s="0">
-        <v>480</v>
+        <v>210</v>
       </c>
       <c r="C73" s="0">
-        <v>3412.9280903369922</v>
+        <v>2154.9237068133939</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="B74" s="0">
-        <v>520</v>
+        <v>240</v>
       </c>
       <c r="C74" s="0">
-        <v>3457.649449886987</v>
+        <v>2197.3501136845871</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="B75" s="0">
-        <v>520</v>
+        <v>270</v>
       </c>
       <c r="C75" s="0">
-        <v>3507.649449886987</v>
+        <v>2228.9728902862712</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>870</v>
+      </c>
+      <c r="B76" s="0">
+        <v>300</v>
+      </c>
+      <c r="C76" s="0">
+        <v>2260.5956668879539</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>870</v>
+      </c>
+      <c r="B77" s="0">
+        <v>310</v>
+      </c>
+      <c r="C77" s="0">
+        <v>2270.5956668879539</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>870</v>
+      </c>
+      <c r="B78" s="0">
+        <v>330</v>
+      </c>
+      <c r="C78" s="0">
+        <v>2290.5956668879539</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>870</v>
+      </c>
+      <c r="B79" s="0">
+        <v>350</v>
+      </c>
+      <c r="C79" s="0">
+        <v>2310.5956668879539</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>870</v>
+      </c>
+      <c r="B80" s="0">
+        <v>380</v>
+      </c>
+      <c r="C80" s="0">
+        <v>2340.5956668879539</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>870</v>
+      </c>
+      <c r="B81" s="0">
+        <v>390</v>
+      </c>
+      <c r="C81" s="0">
+        <v>2350.5956668879539</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>870</v>
+      </c>
+      <c r="B82" s="0">
+        <v>400</v>
+      </c>
+      <c r="C82" s="0">
+        <v>2360.5956668879539</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>870</v>
+      </c>
+      <c r="B83" s="0">
+        <v>420</v>
+      </c>
+      <c r="C83" s="0">
+        <v>2380.5956668879539</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>880</v>
+      </c>
+      <c r="B84" s="0">
+        <v>460</v>
+      </c>
+      <c r="C84" s="0">
+        <v>2421.8267231441309</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>880</v>
+      </c>
+      <c r="B85" s="0">
+        <v>500</v>
+      </c>
+      <c r="C85" s="0">
+        <v>2461.8267231441309</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>880</v>
+      </c>
+      <c r="B86" s="0">
+        <v>530</v>
+      </c>
+      <c r="C86" s="0">
+        <v>2491.8267231441309</v>
       </c>
     </row>
   </sheetData>

--- a/foundPathNominal/10000pathNodes.xlsx
+++ b/foundPathNominal/10000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="3">
   <si>
     <t>X</t>
   </si>
